--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_faithfulness_grouped.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/data_combined_faithfulness_grouped.xlsx
@@ -465,10 +465,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C7" t="n">
         <v>3.2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="C12" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C15" t="n">
         <v>3.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
